--- a/080_GRO 增量公式解析/GRO 增量公式解析.xlsx
+++ b/080_GRO 增量公式解析/GRO 增量公式解析.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2000106552\Desktop\GRO 增量公式解析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Projecct\wechat_project\080_GRO 增量公式解析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2922A-AFAB-48BB-B2C3-C8907ECD9F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24659A29-0BBF-4EBD-8845-6CC23434A9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="试算模板" sheetId="1" r:id="rId1"/>
+    <sheet name="试算模板（优化后）" sheetId="2" r:id="rId1"/>
+    <sheet name="试算模板（优化前）" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>购买人数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -226,14 +228,119 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>环比增长率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LN 波动值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 可加型指标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">： </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 乘法型指标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">： </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制变量法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3. 除法型指标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：（率指标）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：指标波动归因分析应该怎么计算贡献率？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动值 = 本期 - 上期；波动贡献率 = 波动值 / SUM(波动值)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动值 = LN(本期) - LN(上期)；波动贡献率 = 波动值 / SUM(波动值)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -499,15 +606,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -522,37 +626,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,10 +656,10 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,7 +668,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,16 +698,29 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -898,6 +1006,445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B5106B-D06D-4036-B1FB-ABD937F59706}">
+  <dimension ref="B2:Z23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="2.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.58203125" style="1" customWidth="1"/>
+    <col min="10" max="17" width="9" style="1"/>
+    <col min="18" max="19" width="2.58203125" style="1" customWidth="1"/>
+    <col min="20" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="2.58203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="25" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
+    </row>
+    <row r="3" spans="2:26" ht="25" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="S4" s="25"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="31">
+        <v>900</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="34">
+        <f>E6/D6-1</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="36">
+        <f>LN(D6)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="L6" s="36">
+        <f t="shared" ref="L6:L8" si="0">LN(E6)</f>
+        <v>6.8023947633243109</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="36">
+        <f>L6-K6</f>
+        <v>-0.10536051565782589</v>
+      </c>
+      <c r="P6" s="30">
+        <f>N6/$N$10</f>
+        <v>2.5809742247050433</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="34">
+        <f t="shared" ref="H7:H10" si="1">E7/D7-1</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="36">
+        <f t="shared" ref="K7:K8" si="2">LN(D7)</f>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="L7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7:N8" si="3">L7-K7</f>
+        <v>0.2876820724517809</v>
+      </c>
+      <c r="P7" s="30">
+        <f t="shared" ref="P7:P10" si="4">N7/$N$10</f>
+        <v>-7.0472321559165074</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="25"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="31">
+        <v>100</v>
+      </c>
+      <c r="E8" s="31">
+        <v>80</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="34">
+        <f t="shared" si="1"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="36">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="L8" s="36">
+        <f t="shared" si="0"/>
+        <v>4.3820266346738812</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="36">
+        <f t="shared" si="3"/>
+        <v>-0.2231435513142106</v>
+      </c>
+      <c r="P8" s="30">
+        <f t="shared" si="4"/>
+        <v>5.4662579312115049</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="Q9" s="9"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="32">
+        <f>D6*D7*D8</f>
+        <v>150000</v>
+      </c>
+      <c r="E10" s="32">
+        <f>E6*E7*E8</f>
+        <v>144000</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="34">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="36">
+        <f t="shared" ref="K10" si="5">LN(D10)</f>
+        <v>11.918390573078392</v>
+      </c>
+      <c r="L10" s="36">
+        <f>LN(E10)</f>
+        <v>11.877568578558138</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="36">
+        <f>L10-K10</f>
+        <v>-4.0821994520253924E-2</v>
+      </c>
+      <c r="P10" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="S10" s="25"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="S13" s="25"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="18"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="18"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:Q3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AC23"/>
   <sheetViews>
@@ -905,668 +1452,391 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="2.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.58203125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9" style="1"/>
+    <col min="15" max="16" width="2.58203125" style="1" customWidth="1"/>
     <col min="17" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="2.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="2.58203125" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="28"/>
-    </row>
-    <row r="3" spans="2:29" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
-      <c r="C3" s="38" t="s">
+    <row r="2" spans="2:29" ht="25" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="24"/>
+    </row>
+    <row r="3" spans="2:29" ht="25" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="30"/>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="30"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
+      <c r="AC3" s="26"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="P4" s="25"/>
+      <c r="AC4" s="26"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="10" t="s">
+      <c r="N5" s="10"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="30"/>
-    </row>
-    <row r="6" spans="2:29" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="14" t="s">
+      <c r="AC5" s="26"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="31">
         <v>1000</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="31">
         <v>900</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="32">
         <f>(E6-D6)*D7*D8</f>
         <v>-15000</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15">
         <f>ABS(H6)/(ABS($H$6)+ABS($H$7)+ABS($H$8))</f>
         <v>0.15625</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="34">
+      <c r="M6" s="30">
         <f>(ABS(H6)/(ABS($H$6)+ABS($H$7)+ABS($H$8)))*SIGN(H6)</f>
         <v>-0.15625</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="30"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="18" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="25"/>
+      <c r="AC6" s="26"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>1.5</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="32">
         <f>(E7-D7)*E6*D8</f>
         <v>45000</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15">
         <f t="shared" ref="K7:K8" si="0">ABS(H7)/(ABS($H$6)+ABS($H$7)+ABS($H$8))</f>
         <v>0.46875</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="34">
+      <c r="M7" s="30">
         <f>(ABS(H7)/(ABS($H$6)+ABS($H$7)+ABS($H$8)))*SIGN(H7)</f>
         <v>0.46875</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="10" t="s">
+      <c r="N7" s="16"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="30"/>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="18" t="s">
+      <c r="AC7" s="26"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="31">
         <v>100</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="31">
         <v>80</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="32">
         <f>(E8-D8)*E6*E7</f>
         <v>-36000</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="34">
+      <c r="M8" s="30">
         <f>(ABS(H8)/(ABS($H$6)+ABS($H$7)+ABS($H$8)))*SIGN(H8)</f>
         <v>-0.375</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="30"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="18" t="s">
+      <c r="N8" s="16"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="25"/>
+      <c r="AC8" s="26"/>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="15">
         <f>SUM(K6:K8)</f>
         <v>1</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="10" t="s">
+      <c r="N9" s="9"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="30"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="18" t="s">
+      <c r="AC9" s="26"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="32">
         <f>D6*D7*D8</f>
         <v>150000</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="32">
         <f>E6*E7*E8</f>
         <v>144000</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="36">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="32">
         <f>E10-D10</f>
         <v>-6000</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="18" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="17" t="b">
+      <c r="K10" s="14" t="b">
         <f>(E10-D10)=SUM(H6:H8)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="10" t="s">
+      <c r="N10" s="9"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="30"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="30"/>
-    </row>
-    <row r="12" spans="2:29" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="21" t="s">
+      <c r="AC10" s="26"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="P11" s="25"/>
+      <c r="AC11" s="26"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="10" t="s">
+      <c r="N12" s="9"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="30"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="10" t="s">
+      <c r="AC12" s="26"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="30"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="22" t="s">
+      <c r="AC13" s="26"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="10" t="s">
+      <c r="N14" s="9"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="30"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="33"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="22" t="s">
+      <c r="AC14" s="26"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="18"/>
+      <c r="N15" s="9"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="29"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="22" t="s">
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="18"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="18" t="s">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="18" t="s">
+      <c r="D20" s="12"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="D22" s="14"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
